--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Antofagasta.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Antofagasta.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R67bc946db472481f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R668f1e0264804bc9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95640</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2333669.8504705</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8536222.3291536</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51505.358576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96207</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2351893.3031796</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8177945.8746081</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54005.678957</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96868</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2286821.0360077</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8404593.0745341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54308.824138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97651</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2188053.8911736</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8708849.2352941</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50287.581805</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98277</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2181068.8763088</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8673799.1380368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52698.664164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99034</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2180736.9535513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8192297.2561728</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59196.308367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2131064.8814201</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7990346.5531914</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52820.591058999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100397</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2074274.794954</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6722390.5951661</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53300.046919</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100856</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2086978.0122947</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6469792.4126506</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51208.693257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2048211.359814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6633165.5795795</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55756.581376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102214</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2007377.6704169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6854687.4804804</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56031.487786</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102631</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2083168.7034424</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8477720.8089552</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56272.307145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102964</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2125560.8645254</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8624044.6149253</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59041.743677</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103310</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2157849.4902816</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9331643.9702381</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58595.944635</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2117167.6684383</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9195241.9909638</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52615.04012</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104273</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2120612.5967124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9587801.430303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57836.786027</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105917</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2113395.8665464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9653127.8489426</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62927.860789</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2125617.3379074</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8927895.7921686</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57633.315827</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107193</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2055562.4635284</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8982966.0329341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60199.099691</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107678</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2039566.9540574</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8602651.9319526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61800.103614</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108172</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2067469.6361905</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9537176.7404129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61369.557937</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108713</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2067583.7424135</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9787968.2441176</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62961.2017</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109367</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2080170.1362202</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12327499.482456</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64993.101636</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109877</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2168713.2889685</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8968266.8110465</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67793.419605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2220808.0170491</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9515240.5971014</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70557.989355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110373</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2274059.1839127</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9625599.6149425</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70384.106838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110867</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2245769.2283456</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9720901.0687679</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65165.674403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2316955.2484985</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10190129.991453</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67414.200844</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2299900.4652614</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12942431.474285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69976.354061</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112767</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2266868.3578706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11092072.502873</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>66371.64154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2245249.5293552</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10828216.582857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70486.022815</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114120</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2231857.2981598</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10293333.102272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64813.460395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2200986.986052</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9832066.4691011</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70574.178658</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115460</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2195007.2669149</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11286104.58011</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71972.631441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116088</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2189554.2285766</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11552491.701657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68645.246837</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2197457.1774833</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10201869.203252</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76595.120167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117077</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2273225.6685343</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9852927.5486486</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79289.68436</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117470</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2297302.3205924</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11428008.218918</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70593.094174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2194649.8265507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11111882.029649</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71532.174927</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118686</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2133464.0815344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11302644.639257</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75357.765937</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119308</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2117645.1574161</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11806554.511873</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73883.098495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119862</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2104210.2651299</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12496761.365789</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76011.800602</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120510</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2055510.0802091</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12512001.786842</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78086.602068</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120942</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2014495.6961353</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12757245.464191</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73663.094691</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121278</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2036751.3952077</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12072582.593175</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77157.654296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121522</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2023585.8926861</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11423360.489473</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79077.349015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121748</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1952084.3764907</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11984771.643979</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75531.160643</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121907</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2052125.3802078</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11471233.099476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83318.551825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2131886.6042171</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11844049.1</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>80818.151684</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122308</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2125274.1958416</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10197054.450777</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78815.856381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122920</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2123069.3512121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10890327.166666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78878.382903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123561</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2089350.8370035</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10581450.537275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83422.543953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124171</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2052087.0567282</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10227497.350383</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83051.962776</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124335</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2046984.2700285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9900547.7270408</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86153.966353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124901</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1994402.5804116</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9147154.0802919</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81429.934173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125584</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1964051.4044464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7993162.5214446</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85491.423706</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1958652.4165952</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7686772.6030368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91118.816136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1921443.0024245</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7761208.39375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87646.258709</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127223</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1882838.3322433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7387321.6889763</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91689.188832</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1977384.420196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7243774.2356321</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97540.479615</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128317</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1975963.9583375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7229608.6539855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94691.388027</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128787</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1970381.9719769</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7210536.6488413</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94855.61811</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129592</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1968434.4929162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6994261.8951048</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97713.679821</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130217</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1990955.0657901</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7197682.0173611</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93983.841839</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130568</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1987667.5842626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7296626.3356282</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99450.717158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131143</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1988193.2804724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6982535.4680134</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105596.675911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131442</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1974914.5504709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6624777.3766666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99051.045762</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1944885.4090974</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6493776.0115511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104686.782201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132420</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2043397.4488974</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6136024.0264462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109259.762375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133353</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1966274.9719841</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6313466.9150326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105908.667593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130434</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1932478.2686722</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6259292.2804674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102815.463235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2004876.9342383</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6213240.3662884</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115291.403253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2005555.218388</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5893483.6972624</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113659.090226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2060052.7368533</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6126166.1369426</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113883.798685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2055343.8132881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6365277.7353407</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120386.939821</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137802</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2026493.5203698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6386625.8852713</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116940.917906</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2022320.9366307</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6458556.5276073</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124004.06145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>139541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2011711.6279874</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6413038.5480916</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126790.76018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140607</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2116991.1108693</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6877035.5174506</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122852.346246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141422</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2062630.8573277</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6695293.7847533</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126198.780442</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2077109.6238613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6377578.3743922</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120178.868929</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141690</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2104730.7571105</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6110560.8262987</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131228.850104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141982</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2136279.6779098</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6564419.7479935</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136419.452284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>142562</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2229101.2719237</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6782308.763608</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132196.561292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>142852</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2162499.7372315</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6575574.623839</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137389.775105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143141</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2221420.3428647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7172756.9681335</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>139094.70722</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143583</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2312568.9505094</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6847617.2299854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143276.283284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143381</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2496373.2084516</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7052624.311522</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>164651.950991</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143003</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2712043.3234477</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6717077.7090395</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>175390.494549</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>142806</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2906908.712414</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7839446.9724896</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>175473.763209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143066</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3022587.3839766</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7691964.0613333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>196472.901997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3230447.4053582</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7264839.8855656</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>343249.759641</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143790</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3502140.2615063</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7824801.0357142</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>352697.629787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>144566</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3589684.0816858</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8046983.6270136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>325457.477347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>145710</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3562546.6273008</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8942984.26</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>294201.888528</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>146614</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3592174.1020775</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9477952.969353</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>403492.318981</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>395442.608643</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>367093.51248</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>348332.538523</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>359623.228925</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>480230.605413</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>449854.31367</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>444991.738064</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>424070.137126</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>419867.505317</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>404346.619275</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>383281.651949</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>392300.591574</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>363127.690331</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>343304.807489</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>331631.014543</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>327538.645363</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>316698.289999</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>303613.338069</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>295327.126256</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>281325.60197</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>281305.653289</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>275904.943633</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>262307.184484</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>270383.924774</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>260387.205855</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>251874.903953</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>251973.740044</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>253738.856724</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>243243.586352</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>244697.384493</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>234305.51547</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>238822.743839</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>246331.678317</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>237301.510985</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>236602.473356</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>250717.646401</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>244244.290683</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>244722.806147</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>246535.802971</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>245560.616669</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>251738.136821</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>253052.737076</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>247239.665765</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
